--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2501314.200387451</v>
+        <v>-2504050.513408685</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>355.9680014772458</v>
       </c>
       <c r="H2" t="n">
-        <v>197.0749680762219</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>89.82804475189273</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>109.7809034573149</v>
       </c>
       <c r="E4" t="n">
-        <v>141.5240576855764</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>245.8960234481121</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>142.7303445720052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>51.12089039721794</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>70.54396409658032</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,7 +1190,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>162.1462409286438</v>
+        <v>48.7702531363243</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>5.667139474864991</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1345,16 +1345,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>164.3747961797343</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.15319674220954</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>126.6321535627866</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>132.1190787273706</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>19.51567534720847</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2811815126421274</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>20.88994825141581</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>137.9640996397611</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808113</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860056</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,19 +2956,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308925</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972057</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541836</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1445.96558289315</v>
+        <v>1565.850280418409</v>
       </c>
       <c r="C2" t="n">
-        <v>1077.003065952738</v>
+        <v>1565.850280418409</v>
       </c>
       <c r="D2" t="n">
-        <v>1077.003065952738</v>
+        <v>1207.584581811659</v>
       </c>
       <c r="E2" t="n">
-        <v>1077.003065952738</v>
+        <v>821.7963292134145</v>
       </c>
       <c r="F2" t="n">
-        <v>666.0171611631304</v>
+        <v>410.810424423807</v>
       </c>
       <c r="G2" t="n">
-        <v>250.3124108874192</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4361,19 +4361,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.104914868961</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="Y2" t="n">
-        <v>1445.96558289315</v>
+        <v>1565.850280418409</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4407,25 +4407,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1922.533821476954</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>932.6070201144365</v>
+        <v>1326.678288687376</v>
       </c>
       <c r="C4" t="n">
-        <v>763.6708371865296</v>
+        <v>1235.94288994809</v>
       </c>
       <c r="D4" t="n">
-        <v>763.6708371865296</v>
+        <v>1125.053088476055</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>2273.220990903993</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>2018.536502698106</v>
       </c>
       <c r="W4" t="n">
-        <v>1114.255484944676</v>
+        <v>1729.119332661145</v>
       </c>
       <c r="X4" t="n">
-        <v>1114.255484944676</v>
+        <v>1729.119332661145</v>
       </c>
       <c r="Y4" t="n">
-        <v>1114.255484944676</v>
+        <v>1508.326753517615</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1653.287154902436</v>
+        <v>1449.50507480484</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>1080.542557864428</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>722.2768592576774</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>722.2768592576774</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>311.2909544680699</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>299.6266082327628</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.059060190805</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>2184.059060190805</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>2039.886994966557</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4647,25 +4647,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714.4124535040147</v>
+        <v>939.770065904978</v>
       </c>
       <c r="C7" t="n">
-        <v>714.4124535040147</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D7" t="n">
-        <v>714.4124535040147</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E7" t="n">
-        <v>566.4993599216216</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>419.6094124237112</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>251.6229477319898</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>102.884049595496</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1565.189590684012</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1565.189590684012</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1342.211109878748</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>1342.211109878748</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269232</v>
+        <v>1342.211109878748</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.050469232272</v>
+        <v>1342.211109878748</v>
       </c>
       <c r="X7" t="n">
-        <v>896.0609183342544</v>
+        <v>1342.211109878748</v>
       </c>
       <c r="Y7" t="n">
-        <v>896.0609183342544</v>
+        <v>1121.418530735218</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.165657180484</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.203140240072</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926589</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X8" t="n">
-        <v>1768.949738926589</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1605.165657180484</v>
+        <v>1926.050536840746</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.1019332386097</v>
+        <v>602.021613731249</v>
       </c>
       <c r="C10" t="n">
-        <v>157.1019332386097</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D10" t="n">
-        <v>157.1019332386097</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386097</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1630.721736766553</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1434.092988926414</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1211.11450812115</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>921.9961706249873</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>667.3116824191004</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W10" t="n">
-        <v>377.8945123821399</v>
+        <v>1050.803743772796</v>
       </c>
       <c r="X10" t="n">
-        <v>377.8945123821399</v>
+        <v>822.8141928747791</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.1019332386097</v>
+        <v>602.021613731249</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622261</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343192</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219835</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395904</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>449.3439841395904</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>282.1478848544703</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4360536966684</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,7 +5364,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>701.0383482155643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>550.9217088032285</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E19" t="n">
-        <v>403.0086152208354</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F19" t="n">
-        <v>403.0086152208354</v>
+        <v>337.3280009388789</v>
       </c>
       <c r="G19" t="n">
-        <v>235.8125159357153</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>94.10068477791341</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5838,19 +5838,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5993,22 +5993,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C25" t="n">
         <v>782.5512955656815</v>
@@ -6130,13 +6130,13 @@
         <v>656.9646031150021</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
@@ -6148,10 +6148,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6163,10 +6163,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
         <v>2596.781734931274</v>
@@ -6181,7 +6181,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
         <v>1483.798285518751</v>
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
         <v>533.5814564942656</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6409,13 +6409,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6704,19 +6704,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6786,10 +6786,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656814</v>
@@ -6841,13 +6841,13 @@
         <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6901,7 +6901,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7114,16 +7114,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,22 +7597,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7734,10 +7734,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380723</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8061,22 +8061,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>45.44676101130813</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>162.0073097921338</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>129.4330134067484</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>55.57970129570822</v>
       </c>
       <c r="H2" t="n">
-        <v>103.9435844861834</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>77.4187763467351</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.909904960992804</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.0549214456175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>35.112639576356</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>125.5054897610414</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>146.0084629450604</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>80.98465480592341</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>114.1735436840669</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-13</v>
       </c>
     </row>
     <row r="26">
@@ -26314,7 +26314,7 @@
         <v>15883.07632636138</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660709</v>
@@ -26323,10 +26323,10 @@
         <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
@@ -26335,10 +26335,10 @@
         <v>20526.04424660709</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660709</v>
@@ -26350,7 +26350,7 @@
         <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25907.59795980397</v>
+        <v>25907.59795980401</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26424,7 +26424,7 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
         <v>6897.424496707359</v>
@@ -26433,31 +26433,31 @@
         <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="I4" t="n">
-        <v>14888.28375980081</v>
+        <v>14888.28375980084</v>
       </c>
       <c r="J4" t="n">
+        <v>14888.28375980086</v>
+      </c>
+      <c r="K4" t="n">
         <v>14888.28375980082</v>
       </c>
-      <c r="K4" t="n">
-        <v>14888.28375980084</v>
-      </c>
       <c r="L4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980082</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="N4" t="n">
         <v>14888.28375980083</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980089</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1217714.077649207</v>
+        <v>-1218178.374441231</v>
       </c>
       <c r="C6" t="n">
-        <v>-204321.4550248625</v>
+        <v>-204321.4550248626</v>
       </c>
       <c r="D6" t="n">
         <v>-204321.4550248626</v>
       </c>
       <c r="E6" t="n">
-        <v>-595326.73095291</v>
+        <v>-595361.4688783459</v>
       </c>
       <c r="F6" t="n">
-        <v>-87841.28932836432</v>
+        <v>-87876.0272538</v>
       </c>
       <c r="G6" t="n">
-        <v>-87841.28932836432</v>
+        <v>-87876.02725380001</v>
       </c>
       <c r="H6" t="n">
-        <v>-87841.28932836432</v>
+        <v>-87876.02725380004</v>
       </c>
       <c r="I6" t="n">
         <v>-116954.0733607409</v>
@@ -26546,22 +26546,22 @@
         <v>-265131.5331770917</v>
       </c>
       <c r="K6" t="n">
-        <v>-97526.35536710918</v>
+        <v>-97526.35536710909</v>
       </c>
       <c r="L6" t="n">
-        <v>-97526.35536710915</v>
+        <v>-97526.35536710914</v>
       </c>
       <c r="M6" t="n">
-        <v>-230133.6490960358</v>
+        <v>-230133.6490960359</v>
       </c>
       <c r="N6" t="n">
         <v>-116954.0733607409</v>
       </c>
       <c r="O6" t="n">
-        <v>-97526.35536710914</v>
+        <v>-97526.35536710919</v>
       </c>
       <c r="P6" t="n">
-        <v>-97526.35536710918</v>
+        <v>-97526.35536710915</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>38.83456956089742</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6547339434196999</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>55.12252911429329</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>243.5075940840483</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>53.67570480668264</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>31.01360832299331</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0916977274098</v>
+        <v>337.4676855197293</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>95.89043294470862</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>122.1482021568567</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="26">
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,10 +32084,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32558,10 +32558,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N21" t="n">
-        <v>368.6279838366855</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,7 +33035,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>368.6279838366855</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753705</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>295.1262901348405</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>278.4880321229883</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,28 +35252,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>496.3643456887889</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35732,10 +35732,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N21" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>237.2862717533522</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980851</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
